--- a/test_files/Челябинск.xlsx
+++ b/test_files/Челябинск.xlsx
@@ -11405,8 +11405,8 @@
   </sheetPr>
   <dimension ref="A1:DX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
